--- a/municipal/ENG/Population/Density of population/Dedoplistskaro.xlsx
+++ b/municipal/ENG/Population/Density of population/Dedoplistskaro.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 2 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Density of population per 1 sq. km\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0543DB-2EA1-4A5F-A95A-EFBEC6B07314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200"/>
+    <workbookView xWindow="18870" yWindow="405" windowWidth="8640" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,11 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +79,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -93,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -153,12 +160,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,9 +202,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -190,10 +214,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,47 +501,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="9.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -518,7 +548,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2011</v>
       </c>
@@ -526,7 +556,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2012</v>
       </c>
@@ -534,7 +564,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2013</v>
       </c>
@@ -542,7 +572,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2014</v>
       </c>
@@ -550,7 +580,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2015</v>
       </c>
@@ -558,7 +588,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2016</v>
       </c>
@@ -566,7 +596,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2017</v>
       </c>
@@ -574,7 +604,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2018</v>
       </c>
@@ -582,7 +612,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2019</v>
       </c>
@@ -590,7 +620,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
@@ -598,20 +628,28 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="12">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>2022</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>8.0430489731437582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="14">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
